--- a/studios/studio6_shared_mem/datas.xlsx
+++ b/studios/studio6_shared_mem/datas.xlsx
@@ -8,21 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangnanliu/Documents/GitHub/CSE522S_19SP/studios/studio6_shared_mem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF3BD09-AA28-EF48-BF61-585D5E04568D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E2558-43ED-2442-937E-BA768807AB79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="2400" windowWidth="28040" windowHeight="17440" xr2:uid="{99BA74B1-2961-424A-8E7F-0BE4141DEB68}"/>
+    <workbookView xWindow="4740" yWindow="5060" windowWidth="28040" windowHeight="17440" xr2:uid="{99BA74B1-2961-424A-8E7F-0BE4141DEB68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$2:$F$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$2:$I$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$L$2:$L$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$M$2:$M$10</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>pip</t>
   </si>
@@ -49,6 +42,9 @@
   </si>
   <si>
     <t>signal</t>
+  </si>
+  <si>
+    <t>fifo</t>
   </si>
 </sst>
 </file>
@@ -528,6 +524,61 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FB87-174E-8188-B02736F64E73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>fifo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.5984399998342269E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3723440001740528E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6014059997360164E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6279689999919356E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3026560000034806E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.615313000002061E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6388540000207286E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7776040000353532E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E700-8B44-ACBF-28283229DE70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1385,15 +1436,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1719,15 +1770,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CD715E-539D-CD44-8562-CC01A786E9B3}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1740,8 +1791,11 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2347.5052283230002</v>
       </c>
@@ -1785,8 +1839,18 @@
       <c r="M2">
         <v>3</v>
       </c>
+      <c r="N2">
+        <v>3381.68017147</v>
+      </c>
+      <c r="O2">
+        <v>3381.6867699099998</v>
+      </c>
+      <c r="P2">
+        <f>O2-N2</f>
+        <v>6.5984399998342269E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2355.561983997</v>
       </c>
@@ -1830,8 +1894,18 @@
       <c r="M3">
         <v>4</v>
       </c>
+      <c r="N3">
+        <v>3402.387396306</v>
+      </c>
+      <c r="O3">
+        <v>3402.3887686500002</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P9" si="4">O3-N3</f>
+        <v>1.3723440001740528E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2363.618345765</v>
       </c>
@@ -1875,8 +1949,18 @@
       <c r="M4">
         <v>5</v>
       </c>
+      <c r="N4">
+        <v>3439.4275834270002</v>
+      </c>
+      <c r="O4">
+        <v>3439.4291848329999</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>1.6014059997360164E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2371.6781715430002</v>
       </c>
@@ -1920,8 +2004,18 @@
       <c r="M5">
         <v>6</v>
       </c>
+      <c r="N5">
+        <v>3494.9160007300002</v>
+      </c>
+      <c r="O5">
+        <v>3494.9322804200001</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>1.6279689999919356E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2379.7397187790002</v>
       </c>
@@ -1965,8 +2059,18 @@
       <c r="M6">
         <v>7</v>
       </c>
+      <c r="N6">
+        <v>3513.8403178499998</v>
+      </c>
+      <c r="O6">
+        <v>3513.8933444099998</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>5.3026560000034806E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2387.8031014329999</v>
       </c>
@@ -2010,8 +2114,18 @@
       <c r="M7">
         <v>8</v>
       </c>
+      <c r="N7">
+        <v>3519.9955477190001</v>
+      </c>
+      <c r="O7">
+        <v>3519.9971630320001</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>1.615313000002061E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2395.8676937730002</v>
       </c>
@@ -2055,8 +2169,18 @@
       <c r="M8">
         <v>9</v>
       </c>
+      <c r="N8">
+        <v>3525.5929162399998</v>
+      </c>
+      <c r="O8">
+        <v>3525.60930478</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>1.6388540000207286E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2403.9275600719998</v>
       </c>
@@ -2099,6 +2223,16 @@
       </c>
       <c r="M9">
         <v>10</v>
+      </c>
+      <c r="N9">
+        <v>3529.8512017779999</v>
+      </c>
+      <c r="O9">
+        <v>3529.8579793819999</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>6.7776040000353532E-3</v>
       </c>
     </row>
   </sheetData>
